--- a/.github/datasets/test_dataset.xlsx
+++ b/.github/datasets/test_dataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>ib-19</t>
-  </si>
-  <si>
-    <t>x,2,3</t>
   </si>
   <si>
     <t>Implentatieproces</t>
@@ -668,16 +665,16 @@
         <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
